--- a/val_2024-07-11.xlsx
+++ b/val_2024-07-11.xlsx
@@ -466,24 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>036</t>
+          <t>704</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Австралийский доллар</t>
+          <t>Вьетнамских донгов</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>59.2495</v>
+        <v>36.2334</v>
       </c>
     </row>
     <row r="3">
@@ -492,24 +492,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>IDR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Азербайджанский манат</t>
+          <t>Индонезийских рупий</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F3" t="n">
-        <v>51.6795</v>
+        <v>53.9617</v>
       </c>
     </row>
     <row r="4">
@@ -518,24 +518,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>UZS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>860</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Фунт стерлингов Соединенного королевства</t>
+          <t>Узбекских сумов</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F4" t="n">
-        <v>112.4282</v>
+        <v>69.5605</v>
       </c>
     </row>
     <row r="5">
@@ -544,24 +544,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>KRW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>051</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Армянских драмов</t>
+          <t>Вон Республики Корея</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F5" t="n">
-        <v>22.6495</v>
+        <v>63.447</v>
       </c>
     </row>
     <row r="6">
@@ -570,24 +570,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BYN</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>051</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Белорусский рубль</t>
+          <t>Армянских драмов</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>27.4145</v>
+        <v>22.6495</v>
       </c>
     </row>
     <row r="7">
@@ -596,24 +596,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BGN</t>
+          <t>HUF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Болгарский лев</t>
+          <t>Венгерских форинтов</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>48.576</v>
+        <v>24.1599</v>
       </c>
     </row>
     <row r="8">
@@ -622,24 +622,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRL</t>
+          <t>KZT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Бразильский реал</t>
+          <t>Казахстанских тенге</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>16.1546</v>
+        <v>18.2738</v>
       </c>
     </row>
     <row r="9">
@@ -648,24 +648,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HUF</t>
+          <t>RSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>941</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Венгерских форинтов</t>
+          <t>Сербских динаров</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>24.1599</v>
+        <v>81.23650000000001</v>
       </c>
     </row>
     <row r="10">
@@ -674,24 +674,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>JPY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Вьетнамских донгов</t>
+          <t>Японских иен</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>36.2334</v>
+        <v>54.4028</v>
       </c>
     </row>
     <row r="11">
@@ -700,24 +700,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HKD</t>
+          <t>EGP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>818</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Гонконгский доллар</t>
+          <t>Египетских фунтов</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>11.2678</v>
+        <v>18.2981</v>
       </c>
     </row>
     <row r="12">
@@ -726,24 +726,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GEL</t>
+          <t>INR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Грузинский лари</t>
+          <t>Индийских рупий</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>31.9345</v>
+        <v>10.5225</v>
       </c>
     </row>
     <row r="13">
@@ -752,24 +752,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DKK</t>
+          <t>KGS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Датская крона</t>
+          <t>Киргизских сомов</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>12.7363</v>
+        <v>10.2768</v>
       </c>
     </row>
     <row r="14">
@@ -778,24 +778,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AED</t>
+          <t>MDL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Дирхам ОАЭ</t>
+          <t>Молдавских леев</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>23.9224</v>
+        <v>49.3421</v>
       </c>
     </row>
     <row r="15">
@@ -804,24 +804,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Доллар США</t>
+          <t>Норвежских крон</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>87.85509999999999</v>
+        <v>82.6934</v>
       </c>
     </row>
     <row r="16">
@@ -830,24 +830,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>TJS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>972</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Евро</t>
+          <t>Таджикских сомони</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>95.3206</v>
+        <v>82.42570000000001</v>
       </c>
     </row>
     <row r="17">
@@ -856,24 +856,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>764</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Египетских фунтов</t>
+          <t>Таиландских батов</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>18.2981</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="18">
@@ -882,24 +882,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>INR</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>949</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Индийских рупий</t>
+          <t>Турецких лир</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>10.5225</v>
+        <v>26.8131</v>
       </c>
     </row>
     <row r="19">
@@ -908,24 +908,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IDR</t>
+          <t>UAH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>980</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Индонезийских рупий</t>
+          <t>Украинских гривен</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>53.9617</v>
+        <v>21.551</v>
       </c>
     </row>
     <row r="20">
@@ -934,24 +934,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KZT</t>
+          <t>CZK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Казахстанских тенге</t>
+          <t>Чешских крон</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>18.2738</v>
+        <v>37.476</v>
       </c>
     </row>
     <row r="21">
@@ -960,24 +960,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>SEK</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>752</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Канадский доллар</t>
+          <t>Шведских крон</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>64.41930000000001</v>
+        <v>83.1786</v>
       </c>
     </row>
     <row r="22">
@@ -986,24 +986,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>QAR</t>
+          <t>ZAR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>710</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Катарский риал</t>
+          <t>Южноафриканских рэндов</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>24.136</v>
+        <v>48.572</v>
       </c>
     </row>
     <row r="23">
@@ -1012,24 +1012,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KGS</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>036</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Киргизских сомов</t>
+          <t>Австралийский доллар</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>10.2768</v>
+        <v>59.2495</v>
       </c>
     </row>
     <row r="24">
@@ -1038,24 +1038,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>944</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Китайский юань</t>
+          <t>Азербайджанский манат</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>11.9596</v>
+        <v>51.6795</v>
       </c>
     </row>
     <row r="25">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MDL</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Молдавских леев</t>
+          <t>Фунт стерлингов Соединенного королевства</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>49.3421</v>
+        <v>112.4282</v>
       </c>
     </row>
     <row r="26">
@@ -1090,24 +1090,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NZD</t>
+          <t>BYN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>933</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Новозеландский доллар</t>
+          <t>Белорусский рубль</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>53.6619</v>
+        <v>27.4145</v>
       </c>
     </row>
     <row r="27">
@@ -1116,24 +1116,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>BGN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>975</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Норвежских крон</t>
+          <t>Болгарский лев</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>82.6934</v>
+        <v>48.576</v>
       </c>
     </row>
     <row r="28">
@@ -1142,24 +1142,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>BRL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>986</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Польский злотый</t>
+          <t>Бразильский реал</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>22.3413</v>
+        <v>16.1546</v>
       </c>
     </row>
     <row r="29">
@@ -1168,24 +1168,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>HKD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Румынский лей</t>
+          <t>Гонконгский доллар</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>19.1126</v>
+        <v>11.2678</v>
       </c>
     </row>
     <row r="30">
@@ -1194,24 +1194,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>XDR</t>
+          <t>GEL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>981</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>СДР (специальные права заимствования)</t>
+          <t>Грузинский лари</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>116.0214</v>
+        <v>31.9345</v>
       </c>
     </row>
     <row r="31">
@@ -1220,24 +1220,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>DKK</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Сингапурский доллар</t>
+          <t>Датская крона</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>65.0779</v>
+        <v>12.7363</v>
       </c>
     </row>
     <row r="32">
@@ -1246,24 +1246,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TJS</t>
+          <t>AED</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>784</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Таджикских сомони</t>
+          <t>Дирхам ОАЭ</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>82.42570000000001</v>
+        <v>23.9224</v>
       </c>
     </row>
     <row r="33">
@@ -1272,24 +1272,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Таиландских батов</t>
+          <t>Доллар США</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>24.14</v>
+        <v>87.85509999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1298,24 +1298,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>978</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Турецких лир</t>
+          <t>Евро</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>26.8131</v>
+        <v>95.3206</v>
       </c>
     </row>
     <row r="35">
@@ -1324,24 +1324,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Новый туркменский манат</t>
+          <t>Канадский доллар</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>25.1015</v>
+        <v>64.41930000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1350,24 +1350,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UZS</t>
+          <t>QAR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>634</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Узбекских сумов</t>
+          <t>Катарский риал</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>69.5605</v>
+        <v>24.136</v>
       </c>
     </row>
     <row r="37">
@@ -1376,24 +1376,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UAH</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Украинских гривен</t>
+          <t>Китайский юань</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>21.551</v>
+        <v>11.9596</v>
       </c>
     </row>
     <row r="38">
@@ -1402,24 +1402,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CZK</t>
+          <t>NZD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Чешских крон</t>
+          <t>Новозеландский доллар</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>37.476</v>
+        <v>53.6619</v>
       </c>
     </row>
     <row r="39">
@@ -1428,24 +1428,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SEK</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>985</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Шведских крон</t>
+          <t>Польский злотый</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>83.1786</v>
+        <v>22.3413</v>
       </c>
     </row>
     <row r="40">
@@ -1454,24 +1454,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHF</t>
+          <t>RON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>946</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Швейцарский франк</t>
+          <t>Румынский лей</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>97.9105</v>
+        <v>19.1126</v>
       </c>
     </row>
     <row r="41">
@@ -1480,24 +1480,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RSD</t>
+          <t>XDR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>960</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Сербских динаров</t>
+          <t>СДР (специальные права заимствования)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>81.23650000000001</v>
+        <v>116.0214</v>
       </c>
     </row>
     <row r="42">
@@ -1506,24 +1506,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZAR</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>702</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Южноафриканских рэндов</t>
+          <t>Сингапурский доллар</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>48.572</v>
+        <v>65.0779</v>
       </c>
     </row>
     <row r="43">
@@ -1532,24 +1532,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KRW</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>934</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Вон Республики Корея</t>
+          <t>Новый туркменский манат</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>63.447</v>
+        <v>25.1015</v>
       </c>
     </row>
     <row r="44">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JPY</t>
+          <t>CHF</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>756</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Японских иен</t>
+          <t>Швейцарский франк</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>54.4028</v>
+        <v>97.9105</v>
       </c>
     </row>
   </sheetData>
